--- a/tasmia user story.xlsx
+++ b/tasmia user story.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TASMIABANU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_local\Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3ECE1D-E7C5-4C9B-97B7-8FA885706D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698B936-5936-475F-BC3D-DDCB561FA8E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7DFE3CA9-7421-4267-8B38-70B620DE5EB0}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
